--- a/HelpDeskVG/ReportFiles/RAWREPORT.xlsx
+++ b/HelpDeskVG/ReportFiles/RAWREPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLID FIVE\source\repos\HelpDeskVG\HelpDeskVG\ReportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F2D5E-4FC9-44EA-81F9-2445D8380D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1BDFE2-84C1-4DF2-B2B5-A1A0F89B4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1200" windowWidth="22200" windowHeight="9810" xr2:uid="{C6B5C631-4D8F-449D-A7BC-33DEBEAD5192}"/>
+    <workbookView xWindow="6720" yWindow="1590" windowWidth="22200" windowHeight="9810" xr2:uid="{C6B5C631-4D8F-449D-A7BC-33DEBEAD5192}"/>
   </bookViews>
   <sheets>
     <sheet name="RawReport" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>RAW REPORT</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>RECEIVED DATE FROM THIRD PARTY</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA3F04B-8E79-4CFE-A1FA-5C793ACC8D2D}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,28 +500,30 @@
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="45" customWidth="1"/>
-    <col min="13" max="13" width="50.140625" customWidth="1"/>
-    <col min="14" max="14" width="37.85546875" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" customWidth="1"/>
-    <col min="16" max="16" width="34" customWidth="1"/>
-    <col min="17" max="17" width="44" customWidth="1"/>
-    <col min="18" max="18" width="38.42578125" customWidth="1"/>
-    <col min="19" max="19" width="38.5703125" customWidth="1"/>
-    <col min="20" max="20" width="37.7109375" customWidth="1"/>
-    <col min="21" max="21" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="13" width="23.140625" customWidth="1"/>
+    <col min="14" max="14" width="45" customWidth="1"/>
+    <col min="15" max="15" width="50.140625" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="34" customWidth="1"/>
+    <col min="19" max="19" width="44" customWidth="1"/>
+    <col min="20" max="20" width="38.42578125" customWidth="1"/>
+    <col min="21" max="21" width="38.5703125" customWidth="1"/>
+    <col min="22" max="22" width="37.7109375" customWidth="1"/>
+    <col min="23" max="23" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,48 +543,54 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/HelpDeskVG/ReportFiles/RAWREPORT.xlsx
+++ b/HelpDeskVG/ReportFiles/RAWREPORT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLID FIVE\source\repos\HelpDeskVG\HelpDeskVG\ReportFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1BDFE2-84C1-4DF2-B2B5-A1A0F89B4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88177DC2-22C1-45BA-B04E-B61914DD887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1590" windowWidth="22200" windowHeight="9810" xr2:uid="{C6B5C631-4D8F-449D-A7BC-33DEBEAD5192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6B5C631-4D8F-449D-A7BC-33DEBEAD5192}"/>
   </bookViews>
   <sheets>
     <sheet name="RawReport" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>RAW REPORT</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>HIT OR MISS</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA3F04B-8E79-4CFE-A1FA-5C793ACC8D2D}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,20 +513,22 @@
     <col min="15" max="15" width="50.140625" customWidth="1"/>
     <col min="16" max="16" width="37.85546875" customWidth="1"/>
     <col min="17" max="17" width="36.7109375" customWidth="1"/>
-    <col min="18" max="18" width="34" customWidth="1"/>
+    <col min="18" max="18" width="39.7109375" customWidth="1"/>
     <col min="19" max="19" width="44" customWidth="1"/>
     <col min="20" max="20" width="38.42578125" customWidth="1"/>
-    <col min="21" max="21" width="38.5703125" customWidth="1"/>
-    <col min="22" max="22" width="37.7109375" customWidth="1"/>
-    <col min="23" max="23" width="41.5703125" customWidth="1"/>
+    <col min="21" max="21" width="55.42578125" customWidth="1"/>
+    <col min="22" max="22" width="50.7109375" customWidth="1"/>
+    <col min="23" max="23" width="62.85546875" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" customWidth="1"/>
+    <col min="25" max="25" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,6 +597,9 @@
       </c>
       <c r="W4" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
